--- a/WindowsAppQuanLy/bin/Debug/net48/test.xlsx
+++ b/WindowsAppQuanLy/bin/Debug/net48/test.xlsx
@@ -1,208 +1,206 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Visual Studio\AppQuanLyCuaHangPhanMem\WindowsAppQuanLy\WindowsAppQuanLy\bin\Debug\net48\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2869B3A-F694-49BF-A1CA-13AA7B546681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
-    <t>Mã phần mềm</t>
-  </si>
-  <si>
-    <t>Tên phần mềm</t>
-  </si>
-  <si>
-    <t>Nhà phát hành</t>
-  </si>
-  <si>
-    <t>Ngày phát hành</t>
-  </si>
-  <si>
-    <t>Thời hạn</t>
-  </si>
-  <si>
-    <t>Số lượng tồn kho</t>
-  </si>
-  <si>
-    <t>Đơn giá</t>
-  </si>
-  <si>
-    <t>Tổng doanh thu</t>
-  </si>
-  <si>
-    <t>Microsoft 365 Business Basic</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>1 Năm</t>
-  </si>
-  <si>
-    <t>Microsoft 365 Business Standard</t>
-  </si>
-  <si>
-    <t>Microsoft 365 Business Premium</t>
-  </si>
-  <si>
-    <t>Microsoft 365 Home</t>
-  </si>
-  <si>
-    <t>Microsoft 365 Personal</t>
-  </si>
-  <si>
-    <t>Google Drive 100GB</t>
-  </si>
-  <si>
-    <t>Zoom Video Communications</t>
-  </si>
-  <si>
-    <t>3 Tháng</t>
-  </si>
-  <si>
-    <t>Youtube Premium Cá nhân</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>1 Tháng</t>
-  </si>
-  <si>
-    <t>Youtube Premium Gia đình</t>
-  </si>
-  <si>
-    <t>Google Drive 200GB</t>
-  </si>
-  <si>
-    <t>Google Drive 2TB</t>
-  </si>
-  <si>
-    <t>Zoom Meeting</t>
-  </si>
-  <si>
-    <t>Zoom Pro</t>
-  </si>
-  <si>
-    <t>Mathtype</t>
-  </si>
-  <si>
-    <t>Design Science INC</t>
-  </si>
-  <si>
-    <t>Internet Download Manager</t>
-  </si>
-  <si>
-    <t>Tonec FZE</t>
-  </si>
-  <si>
-    <t>Kaspersky Internet Security 1PC</t>
-  </si>
-  <si>
-    <t>Kaspersky Lab</t>
-  </si>
-  <si>
-    <t>ESET Endpoint Security</t>
-  </si>
-  <si>
-    <t>ESET</t>
-  </si>
-  <si>
-    <t>VMware Workstation 17 Pro</t>
-  </si>
-  <si>
-    <t>VMware</t>
-  </si>
-  <si>
-    <t>VMware Workstation 17 Player</t>
-  </si>
-  <si>
-    <t>Spotify Premium</t>
-  </si>
-  <si>
-    <t>Spotify</t>
-  </si>
-  <si>
-    <t>Windows 11 Professional CD Key</t>
-  </si>
-  <si>
-    <t>100 Năm</t>
-  </si>
-  <si>
-    <t>Chat GPT Plus</t>
-  </si>
-  <si>
-    <t>OpenAI</t>
-  </si>
-  <si>
-    <t>6 Tháng</t>
-  </si>
-  <si>
-    <t>FIFA 23 (EA)</t>
-  </si>
-  <si>
-    <t>Electronic Arts Inc</t>
-  </si>
-  <si>
-    <t>Bandicam</t>
-  </si>
-  <si>
-    <t>Bandicam Company</t>
-  </si>
-  <si>
-    <t>Adobe Acrobat Pro 1PC</t>
-  </si>
-  <si>
-    <t>Adobe</t>
-  </si>
-  <si>
-    <t>Windows 11 Education  CD Key</t>
-  </si>
-  <si>
-    <t>Grand Theft Auto V</t>
-  </si>
-  <si>
-    <t>Rockstar Games</t>
-  </si>
-  <si>
-    <t>99 Năm</t>
+    <t xml:space="preserve">Mã phần mềm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên phần mềm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhà phát hành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày phát hành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thời hạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số lượng tồn kho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đơn giá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tổng doanh thu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft 365 Business Basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Năm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft 365 Business Standard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft 365 Business Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft 365 Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft 365 Personal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Drive 100GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoom Video Communications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Tháng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youtube Premium Cá nhân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Tháng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youtube Premium Gia đình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Drive 200GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Drive 2TB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoom Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoom Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Science INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet Download Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonec FZE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaspersky Internet Security 1PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaspersky Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESET Endpoint Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMware Workstation 17 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VMware Workstation 17 Player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spotify Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spotify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 11 Professional CD Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Năm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat GPT Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Tháng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIFA 23 (EA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronic Arts Inc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandicam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bandicam Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adobe Acrobat Pro 1PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 11 Education  CD Key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Theft Auto V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockstar Games</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99 Năm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="0"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -211,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -223,349 +221,80 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
+    </border>
+    <border>
+      <right/>
+      <top/>
+    </border>
+    <border>
+      <top/>
+    </border>
+    <border/>
+    <border>
+      <bottom>
+        <color indexed="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="0"/>
+      </left>
+      <bottom>
+        <color indexed="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="0"/>
+      </left>
+      <right>
+        <color indexed="0"/>
+      </right>
+      <bottom>
+        <color indexed="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color indexed="0"/>
+      </left>
+      <right>
+        <color indexed="0"/>
+      </right>
+      <top>
+        <color indexed="0"/>
+      </top>
+      <bottom>
+        <color indexed="0"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection locked="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.43" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -617,7 +346,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -643,7 +372,7 @@
         <v>25650000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -669,7 +398,7 @@
         <v>11300000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -695,7 +424,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -721,7 +450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -747,7 +476,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
@@ -773,7 +502,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -799,7 +528,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -825,7 +554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -851,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -877,7 +606,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -903,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
@@ -929,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -955,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
@@ -981,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1007,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1033,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1059,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1085,7 +814,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1111,7 +840,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1137,7 +866,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1163,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1189,7 +918,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1215,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1241,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1267,7 +996,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28">
         <v>29</v>
       </c>
@@ -1295,5 +1024,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="default"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>